--- a/工程文書/基本詳細/社員管理.xlsx
+++ b/工程文書/基本詳細/社員管理.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,30 +9,827 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+  <si>
+    <t>新小岩CRM管理システム</t>
+    <rPh sb="0" eb="3">
+      <t>シンコイワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員管理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <rPh sb="0" eb="2">
+      <t>サクシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認者</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認日</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列表页面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钮</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龄</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>态</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>历</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>籍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贯</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>职</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建日期</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页面</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>是否必填</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>保存后自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>闭</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <r>
+      <t>保存并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龄</t>
+    </r>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别</t>
+    </r>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>态</t>
+    </r>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>历</t>
+    </r>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修改页面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>是否必填</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钮</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>范</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>围</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a-b，0-9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0-9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0-100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男：女</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0：有效，1：无效</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专， 本科， 研究生</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>河北等等，参照什么全国省份文档</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计等等</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>销售部门等等</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击进入修改页面</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击删除数据</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>是否确定</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">无 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存後続けを追加</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>保存後自動关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>闭</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンをクリックして、前の画面を戻る。</t>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このボタンをクリックして、対象社員を保存すること。</t>
+    <rPh sb="13" eb="15">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このボタンをクリックして、Index画面を戻る。</t>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蔵宏文</t>
+    <rPh sb="0" eb="1">
+      <t>ゾウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -40,23 +837,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形标注 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="152400"/>
+          <a:ext cx="971550" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42402"/>
+            <a:gd name="adj2" fmla="val 96711"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +1069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +1104,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +1312,930 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7"/>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7">
+        <v>99999</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="7">
+        <v>100</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="7"/>
+      <c r="B27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7">
+        <v>15</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="7">
+        <v>99999</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="7">
+        <v>100</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>